--- a/AlleGebäudeAlleDatenDetaillierteBaualtersklassen.xlsx
+++ b/AlleGebäudeAlleDatenDetaillierteBaualtersklassen.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lena\Documents\BachelorarbeitGit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="7305" yWindow="1110" windowWidth="28275" windowHeight="4020" activeTab="2"/>
   </bookViews>
@@ -17,12 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ALLE!$A$3:$BD$202</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hörn,Melaten,Mitte'!$A$3:$AZ$114</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="612">
   <si>
     <t>Gebäude</t>
   </si>
@@ -1865,7 +1870,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
@@ -2527,12 +2532,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -2559,9 +2567,69 @@
             <c:strRef>
               <c:f>Tabelle1!$B$2:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>V V V V V V V V V V V V V V V V V V V V V</c:v>
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>V</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2683,6 +2751,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BF6-44DC-9E38-2F56DF1A8035}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2691,9 +2764,87 @@
             <c:strRef>
               <c:f>Tabelle1!$C$2:$C$28</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>IV IV IV IV IV IV IV IV IV IV IV IV IV IV IV IV IV IV IV IV IV IV IV IV IV IV IV</c:v>
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>IV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2848,6 +2999,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5BF6-44DC-9E38-2F56DF1A8035}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2856,9 +3012,87 @@
             <c:strRef>
               <c:f>Tabelle1!$D$2:$D$28</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>III III III III III III III III III III III III III III III III III III III III III III III III III III III</c:v>
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>III</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2992,6 +3226,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5BF6-44DC-9E38-2F56DF1A8035}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3000,9 +3239,18 @@
             <c:strRef>
               <c:f>Tabelle1!$E$2:$E$28</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>II II II II</c:v>
+                  <c:v>II</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>II</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>II</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3124,6 +3372,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5BF6-44DC-9E38-2F56DF1A8035}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3132,9 +3385,87 @@
             <c:strRef>
               <c:f>Tabelle1!$F$2:$F$28</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>I I I I I I I I I I I I I I I I I I I I I I I I I I I</c:v>
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>I</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3256,6 +3587,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5BF6-44DC-9E38-2F56DF1A8035}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3277,6 +3613,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3321,7 +3658,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -3335,6 +3672,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3351,19 +3689,40 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A586-4FFB-ACB8-4B9B73B419C6}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3424,6 +3783,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A586-4FFB-ACB8-4B9B73B419C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3432,19 +3796,40 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A586-4FFB-ACB8-4B9B73B419C6}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3505,6 +3890,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A586-4FFB-ACB8-4B9B73B419C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3527,8 +3917,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3548,6 +3940,7 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3637,9 +4030,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3677,9 +4070,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3714,7 +4107,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3749,7 +4142,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -28556,8 +28949,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BE338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28909,7 +29302,7 @@
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75">
         <v>4550</v>
       </c>
@@ -29058,7 +29451,7 @@
       </c>
       <c r="BE4" s="9"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="75">
         <v>4230</v>
       </c>
@@ -29201,7 +29594,7 @@
       </c>
       <c r="BE5" s="9"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="123">
         <v>4273</v>
       </c>
@@ -29334,7 +29727,7 @@
       </c>
       <c r="BE6" s="9"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="123">
         <v>5428</v>
       </c>
@@ -29465,7 +29858,7 @@
       </c>
       <c r="BE7" s="9"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>3050</v>
       </c>
@@ -29566,7 +29959,7 @@
       </c>
       <c r="BE8" s="9"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>4660</v>
       </c>
@@ -29721,7 +30114,7 @@
       </c>
       <c r="BE9" s="9"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>4661</v>
       </c>
@@ -29876,7 +30269,7 @@
       </c>
       <c r="BE10" s="9"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="123">
         <v>4662</v>
       </c>
@@ -30025,7 +30418,7 @@
       </c>
       <c r="BE11" s="9"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="123">
         <v>4663</v>
       </c>
@@ -30174,7 +30567,7 @@
       </c>
       <c r="BE12" s="9"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="123">
         <v>4153</v>
       </c>
@@ -30323,7 +30716,7 @@
       </c>
       <c r="BE13" s="9"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="123">
         <v>4162</v>
       </c>
@@ -30468,7 +30861,7 @@
       <c r="BD14" s="124"/>
       <c r="BE14" s="9"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>4284</v>
       </c>
@@ -30621,7 +31014,7 @@
       </c>
       <c r="BE15" s="9"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>4650</v>
       </c>
@@ -30776,7 +31169,7 @@
       </c>
       <c r="BE16" s="9"/>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="75">
         <v>4652</v>
       </c>
@@ -30883,7 +31276,7 @@
       </c>
       <c r="BE17" s="9"/>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>2400</v>
       </c>
@@ -31157,7 +31550,7 @@
       </c>
       <c r="BE19" s="9"/>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="123">
         <v>4152</v>
       </c>
@@ -31260,7 +31653,7 @@
       </c>
       <c r="BE20" s="9"/>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>1443</v>
       </c>
@@ -31405,7 +31798,7 @@
       <c r="BD21" s="17"/>
       <c r="BE21" s="9"/>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>4080</v>
       </c>
@@ -31560,7 +31953,7 @@
       </c>
       <c r="BE22" s="9"/>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>4121</v>
       </c>
@@ -31657,7 +32050,7 @@
       </c>
       <c r="BE23" s="9"/>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>6020</v>
       </c>
@@ -31784,7 +32177,7 @@
       <c r="BD24" s="9"/>
       <c r="BE24" s="9"/>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="123">
         <v>4151</v>
       </c>
@@ -31917,7 +32310,7 @@
       </c>
       <c r="BE25" s="9"/>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>1660</v>
       </c>
@@ -32215,7 +32608,7 @@
       <c r="BD27" s="9"/>
       <c r="BE27" s="9"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>1280</v>
       </c>
@@ -32360,7 +32753,7 @@
       <c r="BD28" s="9"/>
       <c r="BE28" s="9"/>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>2230</v>
       </c>
@@ -32513,7 +32906,7 @@
       <c r="BD29" s="18"/>
       <c r="BE29" s="9"/>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>1522</v>
       </c>
@@ -32666,7 +33059,7 @@
       <c r="BD30" s="9"/>
       <c r="BE30" s="9"/>
     </row>
-    <row r="31" spans="1:57" s="167" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" s="167" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>4030</v>
       </c>
@@ -32807,7 +33200,7 @@
       <c r="BD31" s="9"/>
       <c r="BE31" s="162"/>
     </row>
-    <row r="32" spans="1:57" s="167" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" s="167" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1040</v>
       </c>
@@ -32958,7 +33351,7 @@
       </c>
       <c r="BE32" s="162"/>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>1121</v>
       </c>
@@ -33107,7 +33500,7 @@
       </c>
       <c r="BE33" s="9"/>
     </row>
-    <row r="34" spans="1:57" s="167" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" s="167" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>4170</v>
       </c>
@@ -33254,7 +33647,7 @@
       </c>
       <c r="BE34" s="162"/>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="70">
         <v>4034</v>
       </c>
@@ -33351,7 +33744,7 @@
       </c>
       <c r="BE35" s="9"/>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>4161</v>
       </c>
@@ -33498,7 +33891,7 @@
       </c>
       <c r="BE36" s="9"/>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="123">
         <v>2359</v>
       </c>
@@ -33645,7 +34038,7 @@
       <c r="BD37" s="124"/>
       <c r="BE37" s="9"/>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>1060</v>
       </c>
@@ -33788,7 +34181,7 @@
       </c>
       <c r="BE38" s="9"/>
     </row>
-    <row r="39" spans="1:57" s="167" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57" s="167" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>4100</v>
       </c>
@@ -33935,7 +34328,7 @@
       </c>
       <c r="BE39" s="162"/>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="123">
         <v>2112</v>
       </c>
@@ -34038,7 +34431,7 @@
       </c>
       <c r="BE40" s="9"/>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="123">
         <v>2315</v>
       </c>
@@ -34292,7 +34685,7 @@
       <c r="BD42" s="69"/>
       <c r="BE42" s="9"/>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>3055</v>
       </c>
@@ -34397,7 +34790,7 @@
       </c>
       <c r="BE43" s="9"/>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>1120</v>
       </c>
@@ -34544,7 +34937,7 @@
       </c>
       <c r="BE44" s="9"/>
     </row>
-    <row r="45" spans="1:57" s="193" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" s="193" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>4160</v>
       </c>
@@ -34699,7 +35092,7 @@
       </c>
       <c r="BE45" s="190"/>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>4150</v>
       </c>
@@ -34854,7 +35247,7 @@
       </c>
       <c r="BE46" s="9"/>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>1132</v>
       </c>
@@ -34953,7 +35346,7 @@
       </c>
       <c r="BE47" s="9"/>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="131">
         <v>1132</v>
       </c>
@@ -35058,7 +35451,7 @@
       </c>
       <c r="BE48" s="9"/>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>1082</v>
       </c>
@@ -35203,7 +35596,7 @@
       <c r="BD49" s="9"/>
       <c r="BE49" s="9"/>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>4272</v>
       </c>
@@ -35354,7 +35747,7 @@
       </c>
       <c r="BE50" s="9"/>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>2280</v>
       </c>
@@ -35505,7 +35898,7 @@
       </c>
       <c r="BE51" s="9"/>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="75">
         <v>4560</v>
       </c>
@@ -35660,7 +36053,7 @@
       </c>
       <c r="BE52" s="9"/>
     </row>
-    <row r="53" spans="1:57" s="193" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:57" s="193" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>3040</v>
       </c>
@@ -35775,7 +36168,7 @@
       </c>
       <c r="BE53" s="190"/>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>1381</v>
       </c>
@@ -35930,7 +36323,7 @@
       </c>
       <c r="BE54" s="9"/>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>1095</v>
       </c>
@@ -36077,7 +36470,7 @@
       </c>
       <c r="BE55" s="9"/>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>2191</v>
       </c>
@@ -36194,7 +36587,7 @@
       </c>
       <c r="BE56" s="9"/>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="70">
         <v>4122</v>
       </c>
@@ -36339,7 +36732,7 @@
       </c>
       <c r="BE57" s="9"/>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>1580</v>
       </c>
@@ -36494,7 +36887,7 @@
       </c>
       <c r="BE58" s="9"/>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>2165</v>
       </c>
@@ -36649,7 +37042,7 @@
       </c>
       <c r="BE59" s="9"/>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="70">
         <v>4120</v>
       </c>
@@ -36750,7 +37143,7 @@
       </c>
       <c r="BE60" s="9"/>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>1111</v>
       </c>
@@ -36895,7 +37288,7 @@
       <c r="BD61" s="2"/>
       <c r="BE61" s="9"/>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>4031</v>
       </c>
@@ -37032,7 +37425,7 @@
       <c r="BD62" s="9"/>
       <c r="BE62" s="9"/>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>4032</v>
       </c>
@@ -37133,7 +37526,7 @@
       </c>
       <c r="BE63" s="9"/>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>2050</v>
       </c>
@@ -37268,7 +37661,7 @@
       <c r="BD64" s="18"/>
       <c r="BE64" s="9"/>
     </row>
-    <row r="65" spans="1:57" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:57" s="174" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>6015</v>
       </c>
@@ -37411,7 +37804,7 @@
       <c r="BD65" s="9"/>
       <c r="BE65" s="173"/>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>4251</v>
       </c>
@@ -37560,7 +37953,7 @@
       <c r="BD66" s="9"/>
       <c r="BE66" s="9"/>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>2141</v>
       </c>
@@ -37701,7 +38094,7 @@
       <c r="BD67" s="18"/>
       <c r="BE67" s="9"/>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="123">
         <v>4263</v>
       </c>
@@ -37798,7 +38191,7 @@
       </c>
       <c r="BE68" s="9"/>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>5427</v>
       </c>
@@ -37929,7 +38322,7 @@
       <c r="BD69" s="2"/>
       <c r="BE69" s="9"/>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>2022</v>
       </c>
@@ -38066,7 +38459,7 @@
       </c>
       <c r="BE70" s="9"/>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>4020</v>
       </c>
@@ -38213,7 +38606,7 @@
       </c>
       <c r="BE71" s="9"/>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="123">
         <v>4260</v>
       </c>
@@ -38308,7 +38701,7 @@
       </c>
       <c r="BE72" s="9"/>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>2131</v>
       </c>
@@ -38463,7 +38856,7 @@
       </c>
       <c r="BE73" s="9"/>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>5360</v>
       </c>
@@ -38608,7 +39001,7 @@
       </c>
       <c r="BE74" s="9"/>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>5420</v>
       </c>
@@ -38755,7 +39148,7 @@
       </c>
       <c r="BE75" s="9"/>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>1410</v>
       </c>
@@ -38904,7 +39297,7 @@
       </c>
       <c r="BE76" s="9"/>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>6013</v>
       </c>
@@ -39198,7 +39591,7 @@
       </c>
       <c r="BE78" s="9"/>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>6014</v>
       </c>
@@ -39339,7 +39732,7 @@
       <c r="BD79" s="9"/>
       <c r="BE79" s="9"/>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>1052</v>
       </c>
@@ -39651,7 +40044,7 @@
       </c>
       <c r="BE81" s="9"/>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17">
         <v>2012</v>
       </c>
@@ -39794,7 +40187,7 @@
       </c>
       <c r="BE82" s="9"/>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
         <v>2182</v>
       </c>
@@ -40098,7 +40491,7 @@
       </c>
       <c r="BE84" s="2"/>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>2351</v>
       </c>
@@ -40396,7 +40789,7 @@
       </c>
       <c r="BE86" s="2"/>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>2111</v>
       </c>
@@ -40543,7 +40936,7 @@
       </c>
       <c r="BE87" s="2"/>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
         <v>2135</v>
       </c>
@@ -40855,7 +41248,7 @@
       </c>
       <c r="BE89" s="2"/>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>2020</v>
       </c>
@@ -41010,7 +41403,7 @@
       </c>
       <c r="BE90" s="2"/>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17">
         <v>2181</v>
       </c>
@@ -41165,7 +41558,7 @@
       </c>
       <c r="BE91" s="2"/>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17">
         <v>2220</v>
       </c>
@@ -41318,7 +41711,7 @@
       <c r="BD92" s="18"/>
       <c r="BE92" s="2"/>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="176">
         <v>2031</v>
       </c>
@@ -41475,7 +41868,7 @@
       </c>
       <c r="BE93" s="2"/>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="123">
         <v>6031</v>
       </c>
@@ -41723,7 +42116,7 @@
       </c>
       <c r="BE95" s="2"/>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17">
         <v>1420</v>
       </c>
@@ -42021,7 +42414,7 @@
       </c>
       <c r="BE97" s="2"/>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17">
         <v>1442</v>
       </c>
@@ -42178,7 +42571,7 @@
       </c>
       <c r="BE98" s="2"/>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17">
         <v>2110</v>
       </c>
@@ -42325,7 +42718,7 @@
       </c>
       <c r="BE99" s="2"/>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17">
         <v>2134</v>
       </c>
@@ -42482,7 +42875,7 @@
       </c>
       <c r="BE100" s="2"/>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>2070</v>
       </c>
@@ -42629,7 +43022,7 @@
       </c>
       <c r="BE101" s="2"/>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15">
         <v>6016</v>
       </c>
@@ -42774,7 +43167,7 @@
       <c r="BD102" s="9"/>
       <c r="BE102" s="2"/>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17">
         <v>2132</v>
       </c>
@@ -42931,7 +43324,7 @@
       </c>
       <c r="BE103" s="2"/>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15">
         <v>1170</v>
       </c>
@@ -43082,7 +43475,7 @@
       </c>
       <c r="BE104" s="2"/>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17">
         <v>2354</v>
       </c>
@@ -43227,7 +43620,7 @@
       </c>
       <c r="BE105" s="2"/>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
         <v>6120</v>
       </c>
@@ -43378,7 +43771,7 @@
       <c r="BD106" s="9"/>
       <c r="BE106" s="2"/>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="16">
         <v>6121</v>
       </c>
@@ -43684,7 +44077,7 @@
       </c>
       <c r="BE108" s="2"/>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
         <v>1171</v>
       </c>
@@ -43833,7 +44226,7 @@
       </c>
       <c r="BE109" s="2"/>
     </row>
-    <row r="110" spans="1:57" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:57" s="53" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17">
         <v>2352</v>
       </c>
@@ -44139,7 +44532,7 @@
       </c>
       <c r="BE111" s="2"/>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>4530</v>
       </c>
@@ -44270,7 +44663,7 @@
       </c>
       <c r="BE112" s="2"/>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>4240</v>
       </c>
@@ -44572,7 +44965,7 @@
       </c>
       <c r="BE114" s="2"/>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17">
         <v>2190</v>
       </c>
@@ -44721,7 +45114,7 @@
       </c>
       <c r="BE115" s="2"/>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="123">
         <v>1830</v>
       </c>
@@ -45158,7 +45551,7 @@
       </c>
       <c r="BE118" s="2"/>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15">
         <v>6012</v>
       </c>
@@ -45446,7 +45839,7 @@
       </c>
       <c r="BE120" s="2"/>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17">
         <v>2137</v>
       </c>
@@ -45601,7 +45994,7 @@
       </c>
       <c r="BE121" s="2"/>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
         <v>1350</v>
       </c>
@@ -45887,7 +46280,7 @@
       </c>
       <c r="BE123" s="2"/>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
         <v>1270</v>
       </c>
@@ -46183,7 +46576,7 @@
       </c>
       <c r="BE125" s="2"/>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>1820</v>
       </c>
@@ -46338,7 +46731,7 @@
       </c>
       <c r="BE126" s="2"/>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="15">
         <v>1821</v>
       </c>
@@ -46648,7 +47041,7 @@
       </c>
       <c r="BE128" s="2"/>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17">
         <v>2011</v>
       </c>
@@ -46783,7 +47176,7 @@
       <c r="BD129" s="18"/>
       <c r="BE129" s="2"/>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15">
         <v>1391</v>
       </c>
@@ -46936,7 +47329,7 @@
       </c>
       <c r="BE130" s="2"/>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="123">
         <v>5380</v>
       </c>
@@ -47319,7 +47712,7 @@
       </c>
       <c r="BE133" s="2"/>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="123">
         <v>1430</v>
       </c>
@@ -47408,7 +47801,7 @@
       </c>
       <c r="BE134" s="2"/>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17">
         <v>1081</v>
       </c>
@@ -47845,7 +48238,7 @@
       </c>
       <c r="BE137" s="2"/>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="123">
         <v>1230</v>
       </c>
@@ -47932,7 +48325,7 @@
       </c>
       <c r="BE138" s="2"/>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="17">
         <v>2130</v>
       </c>
@@ -48089,7 +48482,7 @@
       </c>
       <c r="BE139" s="2"/>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>1050</v>
       </c>
@@ -48689,7 +49082,7 @@
       <c r="BD143" s="2"/>
       <c r="BE143" s="2"/>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17">
         <v>2043</v>
       </c>
@@ -48836,7 +49229,7 @@
       </c>
       <c r="BE144" s="2"/>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17">
         <v>1300</v>
       </c>
@@ -49127,7 +49520,7 @@
       </c>
       <c r="BE146" s="2"/>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17">
         <v>1402</v>
       </c>
@@ -49272,7 +49665,7 @@
       <c r="BD147" s="17"/>
       <c r="BE147" s="2"/>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>1550</v>
       </c>
@@ -49417,7 +49810,7 @@
       <c r="BD148" s="9"/>
       <c r="BE148" s="2"/>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="15">
         <v>1460</v>
       </c>
@@ -49570,7 +49963,7 @@
       <c r="BD149" s="9"/>
       <c r="BE149" s="2"/>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="15">
         <v>1470</v>
       </c>
@@ -49725,7 +50118,7 @@
       </c>
       <c r="BE150" s="2"/>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>4280</v>
       </c>
@@ -50011,7 +50404,7 @@
       <c r="BD152" s="2"/>
       <c r="BE152" s="2"/>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17">
         <v>1180</v>
       </c>
@@ -50159,7 +50552,7 @@
       <c r="BD153" s="2"/>
       <c r="BE153" s="2"/>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="131">
         <v>1100</v>
       </c>
@@ -50246,7 +50639,7 @@
       </c>
       <c r="BE154" s="2"/>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9">
         <v>1030</v>
       </c>
@@ -50379,7 +50772,7 @@
       </c>
       <c r="BE155" s="2"/>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="15">
         <v>1250</v>
       </c>
@@ -50526,7 +50919,7 @@
       </c>
       <c r="BE156" s="2"/>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="15">
         <v>1090</v>
       </c>
@@ -50673,7 +51066,7 @@
       </c>
       <c r="BE157" s="2"/>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="15">
         <v>6018</v>
       </c>
@@ -50810,7 +51203,7 @@
       <c r="BD158" s="9"/>
       <c r="BE158" s="2"/>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="156">
         <v>1401</v>
       </c>
@@ -50959,7 +51352,7 @@
       </c>
       <c r="BE159" s="2"/>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="15">
         <v>6019</v>
       </c>
@@ -51100,7 +51493,7 @@
       <c r="BD160" s="9"/>
       <c r="BE160" s="2"/>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="156">
         <v>1510</v>
       </c>
@@ -51257,7 +51650,7 @@
       </c>
       <c r="BE161" s="2"/>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17">
         <v>1690</v>
       </c>
@@ -51406,7 +51799,7 @@
       </c>
       <c r="BE162" s="2"/>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17">
         <v>1072</v>
       </c>
@@ -51555,7 +51948,7 @@
       </c>
       <c r="BE163" s="2"/>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17">
         <v>1073</v>
       </c>
@@ -51847,7 +52240,7 @@
       </c>
       <c r="BE165" s="2"/>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="15">
         <v>6010</v>
       </c>
@@ -51994,7 +52387,7 @@
       </c>
       <c r="BE166" s="2"/>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17">
         <v>1400</v>
       </c>
@@ -52143,7 +52536,7 @@
       </c>
       <c r="BE167" s="2"/>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="17">
         <v>1600</v>
       </c>
@@ -52292,7 +52685,7 @@
       </c>
       <c r="BE168" s="2"/>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="15">
         <v>1260</v>
       </c>
@@ -52439,7 +52832,7 @@
       </c>
       <c r="BE169" s="2"/>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="15">
         <v>1520</v>
       </c>
@@ -52594,7 +52987,7 @@
       </c>
       <c r="BE170" s="2"/>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>1010</v>
       </c>
@@ -52749,7 +53142,7 @@
       </c>
       <c r="BE171" s="2"/>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="15">
         <v>1710</v>
       </c>
@@ -52896,7 +53289,7 @@
       </c>
       <c r="BE172" s="2"/>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="15">
         <v>1140</v>
       </c>
@@ -53039,7 +53432,7 @@
       </c>
       <c r="BE173" s="2"/>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="123">
         <v>2080</v>
       </c>
@@ -53138,7 +53531,7 @@
       </c>
       <c r="BE174" s="2"/>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="15">
         <v>1070</v>
       </c>
@@ -53285,7 +53678,7 @@
       </c>
       <c r="BE175" s="2"/>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="15">
         <v>1190</v>
       </c>
@@ -53428,7 +53821,7 @@
       </c>
       <c r="BE176" s="2"/>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="15">
         <v>1480</v>
       </c>
@@ -53583,7 +53976,7 @@
       </c>
       <c r="BE177" s="2"/>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>1020</v>
       </c>
@@ -53738,7 +54131,7 @@
       </c>
       <c r="BE178" s="2"/>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="15">
         <v>1080</v>
       </c>
@@ -53885,7 +54278,7 @@
       </c>
       <c r="BE179" s="2"/>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="15">
         <v>1450</v>
       </c>
@@ -54030,7 +54423,7 @@
       <c r="BD180" s="9"/>
       <c r="BE180" s="2"/>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="15">
         <v>1490</v>
       </c>
@@ -54185,7 +54578,7 @@
       </c>
       <c r="BE181" s="2"/>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="15">
         <v>1500</v>
       </c>
@@ -54340,7 +54733,7 @@
       </c>
       <c r="BE182" s="2"/>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="17">
         <v>1110</v>
       </c>
@@ -54485,7 +54878,7 @@
       <c r="BD183" s="2"/>
       <c r="BE183" s="2"/>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="17">
         <v>1360</v>
       </c>
@@ -54626,7 +55019,7 @@
       </c>
       <c r="BE184" s="2"/>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="17">
         <v>1051</v>
       </c>
@@ -54773,7 +55166,7 @@
       </c>
       <c r="BE185" s="2"/>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="123">
         <v>5385</v>
       </c>
@@ -54872,7 +55265,7 @@
       <c r="BD186" s="124"/>
       <c r="BE186" s="2"/>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="17">
         <v>1441</v>
       </c>
@@ -55042,7 +55435,7 @@
       <c r="H188" s="131"/>
       <c r="I188" s="133">
         <f>SUBTOTAL(9,I4:I187)</f>
-        <v>351647</v>
+        <v>49009</v>
       </c>
       <c r="J188" s="141"/>
       <c r="K188" s="131"/>
@@ -55130,7 +55523,7 @@
       <c r="H189" s="47"/>
       <c r="I189" s="59">
         <f>AVERAGE(I4:I188)</f>
-        <v>3865.021739130435</v>
+        <v>2220.25</v>
       </c>
       <c r="J189" s="60"/>
       <c r="K189" s="92"/>
@@ -55282,7 +55675,7 @@
       <c r="H190" s="2"/>
       <c r="I190" s="91">
         <f>AVERAGE(I4:I189)</f>
-        <v>3865.021739130435</v>
+        <v>2220.25</v>
       </c>
       <c r="J190" s="55"/>
       <c r="K190" s="23">
@@ -55407,7 +55800,7 @@
       <c r="BD190" s="17"/>
       <c r="BE190" s="2"/>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="15">
         <v>1201</v>
       </c>
@@ -55655,7 +56048,7 @@
       </c>
       <c r="BE192" s="2"/>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="17">
         <v>3020</v>
       </c>
@@ -56096,7 +56489,7 @@
       </c>
       <c r="BE195" s="2"/>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
         <v>1950</v>
       </c>
@@ -56201,7 +56594,7 @@
       </c>
       <c r="BE196" s="2"/>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="15">
         <v>1191</v>
       </c>
@@ -56340,7 +56733,7 @@
       </c>
       <c r="BE197" s="2"/>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="17">
         <v>1192</v>
       </c>
@@ -56479,7 +56872,7 @@
       <c r="BD198" s="2"/>
       <c r="BE198" s="2"/>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="156">
         <v>1560</v>
       </c>
@@ -56628,7 +57021,7 @@
       </c>
       <c r="BE199" s="2"/>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="17">
         <v>1561</v>
       </c>
@@ -56777,7 +57170,7 @@
       </c>
       <c r="BE200" s="2"/>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="17">
         <v>2192</v>
       </c>
@@ -56864,7 +57257,7 @@
       </c>
       <c r="BE201" s="2"/>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="15">
         <v>6070</v>
       </c>
@@ -64888,9 +65281,149 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:BD202">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2100, Hörsaalgebäude"/>
+        <filter val="2210, Institutsgebäude I"/>
+        <filter val="2220, Institutsgebäude II"/>
+        <filter val="2230, Institutsgebäude III"/>
+        <filter val="2250, Institutsgebäude V"/>
+        <filter val="2300, Forschung/ Untersuchung"/>
+        <filter val="2300, Forschung/Untersuchung"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="TH"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1.008"/>
+        <filter val="1.200"/>
+        <filter val="1.482"/>
+        <filter val="1.496"/>
+        <filter val="1279 (1239)"/>
+        <filter val="1605 (1613)"/>
+        <filter val="1645 (1534)"/>
+        <filter val="1914 (2060)"/>
+        <filter val="2.590"/>
+        <filter val="2209"/>
+        <filter val="2777 (1988)"/>
+        <filter val="3.960"/>
+        <filter val="3120 (3094)"/>
+        <filter val="3264 (3285)"/>
+        <filter val="3502 (3496)"/>
+        <filter val="4.079"/>
+        <filter val="4247 (4241)"/>
+        <filter val="4361 (4407)"/>
+        <filter val="4494 (4568)"/>
+        <filter val="5.224"/>
+        <filter val="5853 (5852)"/>
+        <filter val="6.180"/>
+        <filter val="6190 (6184)"/>
+        <filter val="7128 (7129)"/>
+        <filter val="7164 (7386)"/>
+        <filter val="842"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="III"/>
+        <filter val="IV"/>
+        <filter val="V"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="25">
+      <filters>
+        <filter val="13,32"/>
+        <filter val="13,70"/>
+        <filter val="15,68"/>
+        <filter val="17,65"/>
+        <filter val="19,86"/>
+        <filter val="20,00"/>
+        <filter val="20,84"/>
+        <filter val="21,13"/>
+        <filter val="21,37"/>
+        <filter val="24,89"/>
+        <filter val="25,45"/>
+        <filter val="31,29"/>
+        <filter val="33,00"/>
+        <filter val="33,40"/>
+        <filter val="36,99"/>
+        <filter val="37,21"/>
+        <filter val="38,81"/>
+        <filter val="39,54"/>
+        <filter val="42,97"/>
+        <filter val="44,31"/>
+        <filter val="44,40"/>
+        <filter val="50,58"/>
+        <filter val="59,99"/>
+        <filter val="7,07"/>
+        <filter val="8,03"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="28">
+      <filters>
+        <filter val="10,14"/>
+        <filter val="10,33"/>
+        <filter val="10,52"/>
+        <filter val="100,00"/>
+        <filter val="11,26"/>
+        <filter val="11,36"/>
+        <filter val="11,90"/>
+        <filter val="13,08"/>
+        <filter val="13,92"/>
+        <filter val="14,49"/>
+        <filter val="14,74"/>
+        <filter val="16,91"/>
+        <filter val="18,06"/>
+        <filter val="18,36"/>
+        <filter val="18,99"/>
+        <filter val="20,73"/>
+        <filter val="22,91"/>
+        <filter val="23,33"/>
+        <filter val="24,37"/>
+        <filter val="24,98"/>
+        <filter val="25,15"/>
+        <filter val="26,53"/>
+        <filter val="28,08"/>
+        <filter val="29,18"/>
+        <filter val="30,26"/>
+        <filter val="30,78"/>
+        <filter val="30,79"/>
+        <filter val="31,80"/>
+        <filter val="34,49"/>
+        <filter val="35,89"/>
+        <filter val="36,49"/>
+        <filter val="37,12"/>
+        <filter val="43,81"/>
+        <filter val="46,21"/>
+        <filter val="47,38"/>
+        <filter val="5,24"/>
+        <filter val="53,64"/>
+        <filter val="58,33"/>
+        <filter val="58,51"/>
+        <filter val="59,05"/>
+        <filter val="6,55"/>
+        <filter val="61,02"/>
+        <filter val="62,47"/>
+        <filter val="63,77"/>
+        <filter val="64,90"/>
+        <filter val="66,67"/>
+        <filter val="7,20"/>
+        <filter val="7,42"/>
+        <filter val="7,85"/>
+        <filter val="75,65"/>
+        <filter val="8,58"/>
+        <filter val="85,39"/>
+        <filter val="85,77"/>
+        <filter val="86,80"/>
+        <filter val="88,37"/>
+        <filter val="9,09"/>
+        <filter val="9,95"/>
+        <filter val="91,06"/>
+        <filter val="91,37"/>
       </filters>
     </filterColumn>
     <sortState ref="A65:BD152">
@@ -66075,8 +66608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66162,6 +66695,9 @@
       <c r="E6" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="I6" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="N6" s="2" t="s">
         <v>129</v>
       </c>
@@ -66174,6 +66710,9 @@
       <c r="E7" s="131" t="s">
         <v>56</v>
       </c>
+      <c r="I7" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="N7" s="17" t="s">
         <v>56</v>
       </c>
@@ -66186,6 +66725,9 @@
       <c r="E8" s="131" t="s">
         <v>56</v>
       </c>
+      <c r="I8" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="N8" s="17" t="s">
         <v>159</v>
       </c>
@@ -66198,6 +66740,9 @@
       <c r="E9" s="131" t="s">
         <v>56</v>
       </c>
+      <c r="I9" s="17" t="s">
+        <v>159</v>
+      </c>
       <c r="N9" s="17" t="s">
         <v>56</v>
       </c>
@@ -66210,6 +66755,9 @@
       <c r="E10" s="17" t="s">
         <v>124</v>
       </c>
+      <c r="I10" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="N10" s="17" t="s">
         <v>159</v>
       </c>
@@ -66222,6 +66770,9 @@
       <c r="E11" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="I11" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="N11" s="176" t="s">
         <v>159</v>
       </c>
@@ -66234,6 +66785,9 @@
       <c r="E12" s="17" t="s">
         <v>159</v>
       </c>
+      <c r="I12" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="N12" s="17" t="s">
         <v>50</v>
       </c>
@@ -66246,6 +66800,9 @@
       <c r="E13" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="N13" s="17" t="s">
         <v>50</v>
       </c>
@@ -66258,6 +66815,9 @@
       <c r="E14" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="I14" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="N14" s="17" t="s">
         <v>124</v>
       </c>
@@ -66270,6 +66830,9 @@
       <c r="E15" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="I15" s="17" t="s">
+        <v>159</v>
+      </c>
       <c r="N15" s="17" t="s">
         <v>56</v>
       </c>
@@ -66282,6 +66845,9 @@
       <c r="E16" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="I16" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="N16" s="17" t="s">
         <v>56</v>
       </c>
@@ -66294,6 +66860,9 @@
       <c r="E17" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="I17" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="N17" s="17" t="s">
         <v>50</v>
       </c>
@@ -66306,6 +66875,9 @@
       <c r="E18" s="17" t="s">
         <v>50</v>
       </c>
+      <c r="I18" s="17" t="s">
+        <v>159</v>
+      </c>
       <c r="N18" s="17" t="s">
         <v>159</v>
       </c>
@@ -66318,6 +66890,9 @@
       <c r="E19" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="I19" s="176" t="s">
+        <v>159</v>
+      </c>
       <c r="N19" s="17" t="s">
         <v>56</v>
       </c>
@@ -66330,6 +66905,9 @@
       <c r="E20" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="I20" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="N20" s="17" t="s">
         <v>56</v>
       </c>
@@ -66342,6 +66920,9 @@
       <c r="E21" s="131" t="s">
         <v>129</v>
       </c>
+      <c r="I21" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="N21" s="17" t="s">
         <v>56</v>
       </c>
@@ -66354,6 +66935,9 @@
       <c r="E22" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="I22" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="N22" s="17" t="s">
         <v>124</v>
       </c>
@@ -66366,6 +66950,9 @@
       <c r="E23" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="I23" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="N23" s="176" t="s">
         <v>159</v>
       </c>
@@ -66378,6 +66965,9 @@
       <c r="E24" s="17" t="s">
         <v>50</v>
       </c>
+      <c r="I24" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="N24" s="17" t="s">
         <v>129</v>
       </c>
@@ -66390,6 +66980,9 @@
       <c r="E25" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="I25" s="156" t="s">
+        <v>50</v>
+      </c>
       <c r="N25" s="17" t="s">
         <v>129</v>
       </c>
@@ -66402,6 +66995,9 @@
       <c r="E26" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="I26" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="N26" s="17" t="s">
         <v>56</v>
       </c>
@@ -66414,6 +67010,9 @@
       <c r="E27" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="I27" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="N27" s="17" t="s">
         <v>56</v>
       </c>
@@ -66426,6 +67025,9 @@
       <c r="E28" s="17" t="s">
         <v>50</v>
       </c>
+      <c r="I28" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="N28" s="17" t="s">
         <v>50</v>
       </c>
@@ -66438,6 +67040,9 @@
       <c r="E29" s="17" t="s">
         <v>129</v>
       </c>
+      <c r="I29" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="N29" s="17" t="s">
         <v>50</v>
       </c>
@@ -66450,6 +67055,9 @@
       <c r="E30" s="17" t="s">
         <v>50</v>
       </c>
+      <c r="I30" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="N30" s="156" t="s">
         <v>50</v>
       </c>
@@ -66462,6 +67070,9 @@
       <c r="E31" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="I31" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="N31" s="17" t="s">
         <v>50</v>
       </c>
@@ -66474,6 +67085,9 @@
       <c r="E32" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="I32" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="N32" s="2" t="s">
         <v>129</v>
       </c>
@@ -66483,6 +67097,9 @@
       <c r="E33" s="17" t="s">
         <v>129</v>
       </c>
+      <c r="I33" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="N33" s="17" t="s">
         <v>50</v>
       </c>
@@ -66492,6 +67109,9 @@
       <c r="E34" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="I34" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="N34" s="17" t="s">
         <v>132</v>
       </c>
@@ -66501,6 +67121,9 @@
       <c r="E35" s="17" t="s">
         <v>50</v>
       </c>
+      <c r="I35" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="N35" s="2" t="s">
         <v>129</v>
       </c>
@@ -66510,6 +67133,9 @@
       <c r="E36" s="87" t="s">
         <v>159</v>
       </c>
+      <c r="I36" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="N36" s="2" t="s">
         <v>50</v>
       </c>
@@ -66519,6 +67145,9 @@
       <c r="E37" s="131" t="s">
         <v>129</v>
       </c>
+      <c r="I37" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="N37" s="17" t="s">
         <v>129</v>
       </c>
@@ -66528,6 +67157,9 @@
       <c r="E38" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="I38" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="N38" s="2" t="s">
         <v>50</v>
       </c>
@@ -66537,6 +67169,9 @@
       <c r="E39" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="I39" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="N39" s="17" t="s">
         <v>50</v>
       </c>
@@ -66546,6 +67181,9 @@
       <c r="E40" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="I40" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="N40" s="2" t="s">
         <v>50</v>
       </c>
@@ -66555,6 +67193,9 @@
       <c r="E41" s="17" t="s">
         <v>159</v>
       </c>
+      <c r="I41" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="N41" s="2" t="s">
         <v>50</v>
       </c>
@@ -66564,6 +67205,9 @@
       <c r="E42" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="I42" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="N42" s="2" t="s">
         <v>129</v>
       </c>
@@ -66573,6 +67217,9 @@
       <c r="E43" s="17" t="s">
         <v>159</v>
       </c>
+      <c r="I43" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="N43" s="2" t="s">
         <v>132</v>
       </c>
@@ -66582,6 +67229,9 @@
       <c r="E44" s="176" t="s">
         <v>159</v>
       </c>
+      <c r="I44" s="156" t="s">
+        <v>50</v>
+      </c>
       <c r="N44" s="2" t="s">
         <v>50</v>
       </c>
@@ -66591,6 +67241,9 @@
       <c r="E45" s="17" t="s">
         <v>50</v>
       </c>
+      <c r="I45" s="156" t="s">
+        <v>50</v>
+      </c>
       <c r="N45" s="17" t="s">
         <v>56</v>
       </c>
@@ -66600,6 +67253,9 @@
       <c r="E46" s="17" t="s">
         <v>50</v>
       </c>
+      <c r="I46" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="N46" s="2" t="s">
         <v>50</v>
       </c>
@@ -66609,6 +67265,9 @@
       <c r="E47" s="17" t="s">
         <v>124</v>
       </c>
+      <c r="I47" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="N47" s="17" t="s">
         <v>56</v>
       </c>
@@ -66618,6 +67277,9 @@
       <c r="E48" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="I48" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="N48" s="17" t="s">
         <v>124</v>
       </c>
@@ -66627,6 +67289,9 @@
       <c r="E49" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="I49" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="N49" s="17" t="s">
         <v>50</v>
       </c>
@@ -66636,6 +67301,9 @@
       <c r="E50" s="17" t="s">
         <v>50</v>
       </c>
+      <c r="I50" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="N50" s="2" t="s">
         <v>129</v>
       </c>
@@ -66645,6 +67313,9 @@
       <c r="E51" s="17" t="s">
         <v>159</v>
       </c>
+      <c r="I51" s="156" t="s">
+        <v>50</v>
+      </c>
       <c r="N51" s="17" t="s">
         <v>50</v>
       </c>
